--- a/StructureDefinition-ext-R5-Encounter.admission.xlsx
+++ b/StructureDefinition-ext-R5-Encounter.admission.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="182">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>Extension.extension:origin.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -491,15 +491,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>From where the patient was admitted.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-encounter-admit-source-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:reAdmission</t>
   </si>
   <si>
@@ -531,15 +522,6 @@
     <t>Extension.extension:reAdmission.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The reason for re-admission of this admission encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v2-0092-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:destination</t>
   </si>
   <si>
@@ -600,12 +582,6 @@
   </si>
   <si>
     <t>Extension.extension:dischargeDisposition.value[x]</t>
-  </si>
-  <si>
-    <t>Discharge Disposition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-encounter-discharge-disposition-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -965,8 +941,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.62890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.33984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2930,13 +2906,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2974,13 +2950,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3005,14 +2981,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3081,7 +3057,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3184,7 +3160,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3289,7 +3265,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3332,7 +3308,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3394,7 +3370,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3423,10 +3399,10 @@
         <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3453,13 +3429,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3497,13 +3473,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3528,14 +3504,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3604,7 +3580,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3707,7 +3683,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3812,7 +3788,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3855,7 +3831,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3917,7 +3893,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3946,10 +3922,10 @@
         <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4020,13 +3996,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4051,14 +4027,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4127,7 +4103,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4230,7 +4206,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4335,7 +4311,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4378,7 +4354,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4440,7 +4416,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4469,10 +4445,10 @@
         <v>148</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4499,13 +4475,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -4674,13 +4650,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
